--- a/data/Scotch Data/IBSC Teacher Scotch 1.xlsx
+++ b/data/Scotch Data/IBSC Teacher Scotch 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c85ca06803d405f/2017-2019/Documents/RF/IBSC Survey Feedback/Scotch Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c85ca06803d405f/2017-2019/Documents/RF/IBSC Survey Feedback/Master Dash/data/Scotch Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_6F9086F6E5749D81109B1D8B4B6226EF84EC25CF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{630D27C5-FC9F-4A89-BED0-694EA899235C}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_6F9086F6E5749D81109B1D8B4B6226EF84EC25CF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D9F815F-EBBE-4502-A637-8986B553506D}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="0" windowWidth="25890" windowHeight="15260" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="37690" windowHeight="21820" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Node Attributes" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,9 +745,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -842,7 +842,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -937,7 +937,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -3421,12 +3421,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -3818,9 +3818,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -4212,9 +4212,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -4606,9 +4606,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -5000,9 +5000,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -5394,9 +5394,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -5410,7 +5413,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -5424,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -5438,7 +5441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -5452,7 +5455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -5466,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -5480,7 +5483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -5494,7 +5497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -5508,7 +5511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -5522,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -5536,7 +5539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -5550,7 +5553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -5564,7 +5567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -5578,7 +5581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -5592,7 +5595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -5606,7 +5609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -5620,7 +5623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -5634,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -5648,7 +5651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -5662,7 +5665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -5676,7 +5679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -5690,7 +5693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -5704,7 +5707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -5718,7 +5721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -5732,7 +5735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -5746,7 +5749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -5760,7 +5763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
